--- a/Dataset/Folds/Fold_4/Excel/54.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/54.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="230">
   <si>
     <t>Doi</t>
   </si>
@@ -713,6 +713,46 @@
   </si>
   <si>
     <t>[ S.%Singh%null%1,                            A.% Khan%null%1,                            M.% Chowdhry%null%1,                            A. % Chatterjee%null%1,         S.%Singh%null%1,         A.% Khan%null%1,         M.% Chowdhry%null%1,         A. % Chatterjee%null%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                            Didier%Zanini%NULL%1,                            Vincent%Laforge%NULL%1,                            Sylvie%Arlotto%NULL%1,                            Stephanie%Gentile%NULL%1,                            Helene%Mendizabal%NULL%1,                            Michael%Finaud%NULL%1,                            David%Morel%NULL%1,                            Olivier%Quenette%NULL%1,                            Priscilla%Malfuson-Clot-Faybesse%NULL%1,                            Alain%Midejean%NULL%1,                            Phuc%Le-Dinh%NULL%1,                            Gérard%Daher%NULL%1,                            Berengere%Labarriere%NULL%1,                            Anne-Marie%Morel-Roux%NULL%1,                            Alain%Coquet%NULL%1,                            Patrick%Augier%NULL%1,                            Philippe%Parola%NULL%2,                            Eric%Chabriere%NULL%1,                            Didier%Raoult%NULL%2,                            Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                            Viet-Thi%Tran%NULL%0,                            Viet-Thi%Tran%NULL%0,                            Mathilde%Roumier%NULL%0,                            Amélie%Chabrol%NULL%0,                            Romain%Paule%NULL%0,                            Constance%Guillaud%NULL%0,                            Elena%Fois%NULL%0,                            Raphael%Lepeule%NULL%0,                            Tali-Anne%Szwebel%NULL%0,                            François-Xavier%Lescure%NULL%0,                            Frédéric%Schlemmer%NULL%0,                            Marie%Matignon%NULL%0,                            Mehdi%Khellaf%NULL%0,                            Etienne%Crickx%NULL%0,                            Benjamin%Terrier%NULL%0,                            Caroline%Morbieu%NULL%0,                            Paul%Legendre%NULL%0,                            Julien%Dang%NULL%0,                            Yoland%Schoindre%NULL%0,                            Jean-Michel%Pawlotsky%NULL%0,                            Marc%Michel%NULL%0,                            Elodie%Perrodeau%NULL%0,                            Nicolas%Carlier%NULL%0,                            Nicolas%Roche%NULL%0,                            Victoire%de Lastours%NULL%0,                            Clément%Ourghanlian%NULL%0,                            Solen%Kerneis%NULL%0,                            Philippe%Ménager%NULL%0,                            Luc%Mouthon%NULL%0,                            Etienne%Audureau%NULL%0,                            Philippe%Ravaud%NULL%0,                            Bertrand%Godeau%NULL%0,                            Sébastien%Gallien%NULL%0,                            Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                            Siddharth%Narendran%NULL%1,                            Felipe%Pereira%NULL%1,                            Tammy H.%Cummings%NULL%1,                            James W.%Hardin%NULL%1,                            S. Scott%Sutton%NULL%1,                            Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%3,                             Didier%Zanini%NULL%1,                             Vincent%Laforge%NULL%1,                             Sylvie%Arlotto%NULL%1,                             Stephanie%Gentile%NULL%1,                             Helene%Mendizabal%NULL%1,                             Michael%Finaud%NULL%1,                             David%Morel%NULL%1,                             Olivier%Quenette%NULL%1,                             Priscilla%Malfuson-Clot-Faybesse%NULL%1,                             Alain%Midejean%NULL%1,                             Phuc%Le-Dinh%NULL%1,                             Gérard%Daher%NULL%1,                             Berengere%Labarriere%NULL%1,                             Anne-Marie%Morel-Roux%NULL%1,                             Alain%Coquet%NULL%1,                             Patrick%Augier%NULL%1,                             Philippe%Parola%NULL%2,                             Eric%Chabriere%NULL%1,                             Didier%Raoult%NULL%2,                             Philippe%Gautret%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0,                             Viet-Thi%Tran%NULL%0,                             Viet-Thi%Tran%NULL%0,                             Mathilde%Roumier%NULL%0,                             Amélie%Chabrol%NULL%0,                             Romain%Paule%NULL%0,                             Constance%Guillaud%NULL%0,                             Elena%Fois%NULL%0,                             Raphael%Lepeule%NULL%0,                             Tali-Anne%Szwebel%NULL%0,                             François-Xavier%Lescure%NULL%0,                             Frédéric%Schlemmer%NULL%0,                             Marie%Matignon%NULL%0,                             Mehdi%Khellaf%NULL%0,                             Etienne%Crickx%NULL%0,                             Benjamin%Terrier%NULL%0,                             Caroline%Morbieu%NULL%0,                             Paul%Legendre%NULL%0,                             Julien%Dang%NULL%0,                             Yoland%Schoindre%NULL%0,                             Jean-Michel%Pawlotsky%NULL%0,                             Marc%Michel%NULL%0,                             Elodie%Perrodeau%NULL%0,                             Nicolas%Carlier%NULL%0,                             Nicolas%Roche%NULL%0,                             Victoire%de Lastours%NULL%0,                             Clément%Ourghanlian%NULL%0,                             Solen%Kerneis%NULL%0,                             Philippe%Ménager%NULL%0,                             Luc%Mouthon%NULL%0,                             Etienne%Audureau%NULL%0,                             Philippe%Ravaud%NULL%0,                             Bertrand%Godeau%NULL%0,                             Sébastien%Gallien%NULL%0,                             Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%1,                             Siddharth%Narendran%NULL%1,                             Felipe%Pereira%NULL%1,                             Tammy H.%Cummings%NULL%1,                             James W.%Hardin%NULL%1,                             S. Scott%Sutton%NULL%1,                             Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives: This study aimed to report the results of SARS-CoV-2 PCR-based screening campaigns conducted on dependent elderly residents (compared with staff members) in long-term care facilities (LTCFs) in Marseille, France, and the follow-up of positive cases.
+</t>
+  </si>
+  <si>
+    <t>[Tran Duc Anh%Ly%NULL%0, Didier%Zanini%NULL%1, Vincent%Laforge%NULL%1, Sylvie%Arlotto%NULL%1, Stephanie%Gentile%NULL%1, Helene%Mendizabal%NULL%1, Michael%Finaud%NULL%1, David%Morel%NULL%1, Olivier%Quenette%NULL%1, Priscilla%Malfuson-Clot-Faybesse%NULL%1, Alain%Midejean%NULL%1, Phuc%Le-Dinh%NULL%1, Gérard%Daher%NULL%1, Berengere%Labarriere%NULL%1, Anne-Marie%Morel-Roux%NULL%1, Alain%Coquet%NULL%1, Patrick%Augier%NULL%1, Philippe%Parola%NULL%2, Eric%Chabriere%NULL%1, Didier%Raoult%NULL%4, Philippe%Gautret%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd and International Society of Antimicrobial Chemotherapy.</t>
+  </si>
+  <si>
+    <t>[Matthieu%Mahévas%NULL%0, Viet-Thi%Tran%NULL%0, Viet-Thi%Tran%NULL%0, Mathilde%Roumier%NULL%0, Amélie%Chabrol%NULL%0, Romain%Paule%NULL%0, Constance%Guillaud%NULL%0, Elena%Fois%NULL%0, Raphael%Lepeule%NULL%0, Tali-Anne%Szwebel%NULL%0, François-Xavier%Lescure%NULL%0, Frédéric%Schlemmer%NULL%0, Marie%Matignon%NULL%0, Mehdi%Khellaf%NULL%0, Etienne%Crickx%NULL%0, Benjamin%Terrier%NULL%0, Caroline%Morbieu%NULL%0, Paul%Legendre%NULL%0, Julien%Dang%NULL%0, Yoland%Schoindre%NULL%0, Jean-Michel%Pawlotsky%NULL%0, Marc%Michel%NULL%0, Elodie%Perrodeau%NULL%0, Nicolas%Carlier%NULL%0, Nicolas%Roche%NULL%0, Victoire%de Lastours%NULL%0, Clément%Ourghanlian%NULL%0, Solen%Kerneis%NULL%0, Philippe%Ménager%NULL%0, Luc%Mouthon%NULL%0, Etienne%Audureau%NULL%0, Philippe%Ravaud%NULL%0, Bertrand%Godeau%NULL%0, Sébastien%Gallien%NULL%0, Nathalie%Costedoat-Chalumeau%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Joseph%Magagnoli%NULL%0, Siddharth%Narendran%NULL%1, Felipe%Pereira%NULL%1, Tammy H.%Cummings%NULL%1, James W.%Hardin%NULL%1, S. Scott%Sutton%NULL%1, Jayakrishna%Ambati%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1081,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1056,10 +1096,10 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
@@ -1076,7 +1116,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -1088,10 +1128,10 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -1102,25 +1142,25 @@
         <v>44068.0</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
         <v>59</v>
@@ -1134,25 +1174,25 @@
         <v>44197.0</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>59</v>
@@ -1166,28 +1206,28 @@
         <v>43960.0</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1204,7 +1244,7 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1216,10 +1256,10 @@
         <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8">
@@ -1230,25 +1270,25 @@
         <v>43970.0</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>59</v>
